--- a/data/raw/explainer_videos_111_nastavnik.xlsx
+++ b/data/raw/explainer_videos_111_nastavnik.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:D329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,1814 +441,7233 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Название (RU) / Название (EN)</t>
+          <t>exercise_slug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Скрипт Инструкции («Мудрый наставник»)</t>
+          <t>video_kind</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>r2_path</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WZ001</t>
+          <t>CX001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Вращения тазом / Hip Circles</t>
+          <t>CX001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"Начнем с вращения таза. Мой совет: закройте глаза, если вам комфортно, и представьте, что вы рисуете круг центром вашего тела. Сконцентрируйтесь на плавности, а не на амплитуде. Избегайте ошибки механического вращения. Почувствуйте, как пробуждается энергия."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX001.mp4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WZ002</t>
+          <t>CX002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Лимфодренажные прыжки / Heel Drops</t>
+          <t>CX002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>"Легкие пробуждающие постукивания. Совет: поднимайтесь на носки на вдохе, опускайтесь на пятки на выдохе, позволяя вибрации пройти по телу. Сконцентрируйтесь на ощущении освобождения от застоявшейся энергии. Ошибка — напряжение. Тело должно быть расслабленным, как струна."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX002.mp4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>WZ003</t>
+          <t>CX003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Махи ногами / Leg Swings</t>
+          <t>CX003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"Махи ногами. Совет: позвольте ноге двигаться свободно, по инерции, как маятнику. Не применяйте силу. Сконцентрируйтесь на дыхании: пусть оно будет ровным и спокойным. Ошибка — пытаться поднять ногу как можно выше. Цель — свобода движения, а не высота."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX003.mp4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>WZ004</t>
+          <t>CX004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Круговые движения плечами / Shoulder Rolls</t>
+          <t>CX004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"Освободим плечи и шею. Совет: выполняйте движение медленно, представляя, как вы снимаете с плеч невидимый груз. Сконцентрируйтесь на ощущении тепла в суставах. Ошибка — торопливость. Позвольте напряжению раствориться."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX004.mp4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>WZ005</t>
+          <t>CX005</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Наклоны туловища в стороны / Torso Bends</t>
+          <t>CX005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"Боковые наклоны. Совет: на вдохе вытянитесь вверх, на выдохе — плавно наклонитесь в сторону. Представьте, как вы создаете пространство между ребрами. Сконцентрируйтесь на дыхании в растягиваемый бок. Ошибка — сгибаться вперед. Раскрывайте тело."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX005.mp4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>WZ006</t>
+          <t>CX006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>«Кошка-Корова» / Cat-Cow Pose</t>
+          <t>CX006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"Практика 'Кошка и Корова'. Совет: позвольте дыханию вести движение. Вдох мягко раскрывает грудную клетку, выдох — освобождает напряжение в спине. Сконцентрируйтесь на ощущении волны, проходящей по позвоночнику. Избегайте ошибки механического выполнения. Это диалог, а не упражнение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX006.mp4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WZ007</t>
+          <t>CX007</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ходьба на месте с высоким подъемом коленей / High Knees (Marching)</t>
+          <t>CX007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"Ходьба на месте. Совет: двигайтесь плавно и осознанно, чувствуя, как стопа отрывается от пола и ставится обратно. Сконцентрируйтесь на связи с землей, на своей опоре. Ошибка — думать о чем-то другом. Будьте здесь, в этом шаге."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX007.mp4</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WZ008</t>
+          <t>CX008</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Прыжки "Jumping Jacks" (легкий темп) / Jumping Jacks (Light Pace)</t>
+          <t>CX008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"Легкие прыжки. Совет: найдите ритм, который кажется вам естественным и радостным. Движение должно быть легким, почти невесомым. Сконцентрируйтесь на ощущении пробуждения всего тела. Ошибка — напряжение. Позвольте телу двигаться свободно."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX008.mp4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WZ009</t>
+          <t>CX009</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Вращения в голеностопе и запястьях / Ankle &amp; Wrist Rotations</t>
+          <t>CX009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Пробудим наши суставы. Совет: выполняйте вращения медленно, с полным вниманием к ощущениям. Сконцентрируйтесь на всем диапазоне движения. Ошибка — делать это как формальность. Поблагодарите эти суставы за их ежедневную работу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX009.mp4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WZ010</t>
+          <t>CX010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Наклоны таза вперед-назад / Pelvic Tilts</t>
+          <t>CX010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Движение тазом. Совет: это очень тонкое, внутреннее движение. Представьте, что ваш таз — это чаша, которую вы плавно наклоняете вперед и назад. Сконцентрируйтесь на дыхании, которое помогает этому движению. Ошибка — напрягать ягодицы или плечи. Работа идет из самого центра."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX010.mp4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WZ011</t>
+          <t>CX011</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Повороты корпуса стоя / Standing Torso Twists</t>
+          <t>CX011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Мягкие скручивания. Совет: позвольте рукам свободно вращаться вокруг тела, легко похлопывая по спине и животу. Ноги и таз остаются стабильными. Сконцентрируйтесь на ощущении освобождения в позвоночнике. Ошибка — применять силу. Движение рождается из расслабления."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX011.mp4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>WZ012</t>
+          <t>CX012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ягодичный мостик (активация) / Glute Bridge (Activation)</t>
+          <t>CX012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Пробуждение силы таза. Совет: перед подъемом, почувствуйте свои стопы, их связь с полом. Поднимайте таз на выдохе. Сконцентрируйтесь на потоке энергии от стоп к бедрам. Ошибка — выгибать поясницу. Движение рождается из силы ягодиц, а не из прогиба."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX012.mp4</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WZ013</t>
+          <t>CX013</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Приседания без веса (разминочные) / Bodyweight Squats (Warm-up Pace)</t>
+          <t>CX013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"Осознанные приседания. Совет: опускайтесь ровно на столько, на сколько тело готово сегодня, без боли. Почувствуйте, как вес распределяется по всей стопе. Сконцентрируйтесь на дыхании: вдох при опускании, выдох при подъеме. Ошибка — спешка. Исследуйте движение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX013.mp4</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>WZ014</t>
+          <t>CX014</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Отжимания от стены / Wall Push-ups</t>
+          <t>CX014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Отжимания от стены. Совет: почувствуйте, как вы мягко 'вдавливаете' стену, а не просто сгибаете руки. Сконцентрируйтесь на тепле, которое рождается в груди и плечах. Ошибка — терять связь с центром тела. Пресс остается в легком тонусе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX014.mp4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WZ015</t>
+          <t>CX015</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Червяк" / Inchworm</t>
+          <t>CX015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Упражнение 'Червяк'. Совет: двигайтесь медленно, как живое существо, исследующее пространство. Почувствуйте, как растягивается задняя поверхность ног. Сконцентрируйтесь на перетекании из одного положения в другое. Ошибка — думать о конечном результате. Будьте в процессе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX015.mp4</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CX016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Название (RU) / Название (EN)</t>
+          <t>CX016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Скрипт Инструкции («Мудрый наставник»)</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX016.mp4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EX001</t>
+          <t>CX017</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Приседания с весом тела / Bodyweight Squats</t>
+          <t>CX017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Давайте выполним приседание. Это одно из самых естественных движений для нашего тела. Ваш главный совет — двигайтесь медленно и осознанно. Сконцентрируйтесь на ощущении заземления, на том, как стопы давят в пол. Избегайте ошибки спешки, которая приводит к отрыву пяток от пола. Почувствуйте свою опору."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX017.mp4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EX002</t>
+          <t>CX018</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Выпады вперед / Forward Lunges</t>
+          <t>CX018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"Практика выпада. Совет: делайте шаг вперед и опускайтесь в движение с достоинством, сохраняя корпус вертикальным. Сконцентрируйтесь на балансе, на том, как тело находит свою точку равновесия. Частая ошибка — позволять переднему колену 'упасть' внутрь. Сохраняйте соосность."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX018.mp4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EX003</t>
+          <t>CX019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Болгарские сплит-приседания / Bulgarian Split Squats</t>
+          <t>CX019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"Болгарский присед. Это упражнение требует доверия к своей силе. Совет: найдите устойчивое положение, прежде чем начать движение. Сконцентрируйтесь на силе вашей опорной ноги; она — ваш якорь. Ошибка — торопиться. Это медитация в движении, требующая полного присутствия."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX019.mp4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EX004</t>
+          <t>CX020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>«Навес» (наклон назад с колен) / Nordic Hamstring Curl (Bodyweight variation)</t>
+          <t>CX020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"Практика 'Навеса'. Совет: отклоняйтесь назад ровно на столько, на сколько ваше тело готово, без боли. Движение очень медленное. Сконцентрируйтесь на ощущении контроля и силы, идущей от бедер. Ошибка — сгибание в тазу. Тело остается единой, цельной линией."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX020.mp4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EX005</t>
+          <t>CX021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Приседания "Плие" / Plie Squats</t>
+          <t>CX021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"Приседание 'Плие'. Совет: раскрывайте тазобедренные суставы, позволяя коленям двигаться в стороны. Спина остается прямой. Сконцентрируйтесь на ощущении раскрытия и силы во внутренней части бедер. Ошибка — заваливаться вперед. Движение направлено вертикально вниз."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>videos/mentor/CX021.mp4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EX006</t>
+          <t>CZ001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Приседания у стены ("Стульчик") / Wall Sit</t>
+          <t>CZ001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Практика 'Стул у стены'. Совет: найдите свой угол и просто будьте в нем. Дышите. Сконцентрируйтесь не на жжении, а на своей способности спокойно присутствовать в дискомфорте. Ошибка — задерживать дыхание. Позвольте дыханию течь свободно, оно поможет вам."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ001.mp4</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EX007</t>
+          <t>CZ002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Подъемы на носки стоя / Standing Calf Raises</t>
+          <t>CZ002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"Подъемы на носки. Совет: поднимайтесь на выдохе, опускайтесь на вдохе. Движение плавное, как волна. Сконцентрируйтесь на полном сокращении и полном растяжении икроножной мышцы. Ошибка — использовать инерцию. Почувствуйте каждый миллиметр движения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ002.mp4</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EX008</t>
+          <t>CZ003</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Обратные выпады / Reverse Lunges</t>
+          <t>CZ003</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"Обратный выпад. Совет: делая шаг назад, вы обретаете большую стабильность. Используйте это, чтобы углубить движение. Сконцентрируйтесь на мягком касании коленом пола. Ошибка — 'падать' в выпад. Движение должно быть контролируемым спуском и подъемом."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ003.mp4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EX009</t>
+          <t>CZ004</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Боковые выпады / Lateral Lunges</t>
+          <t>CZ004</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Боковой выпад. Совет: двигайтесь в сторону, отводя таз назад, будто садитесь на невидимый стул. Сконцентрируйтесь на двойном ощущении: силы в согнутой ноге и растяжения в прямой. Ошибка — отрывать пятку опорной ноги. Сохраняйте контакт с землей."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ004.mp4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EX010</t>
+          <t>CZ005</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Приседания "Пистолетик" (с опорой) / Pistol Squats (Assisted)</t>
+          <t>CZ005</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Приседание на одной ноге. Это практика доверия и баланса. Совет: используйте опору как помощника, а не как костыль. Сконцентрируйтесь на поиске своего центра тяжести. Ошибка — бороться с движением. Позвольте ему случиться, даже если оно несовершенно."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ005.mp4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EX011</t>
+          <t>CZ006</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Зашагивания на возвышенность / Step-Ups</t>
+          <t>CZ006</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Подъемы на возвышенность. Совет: представьте, что вы поднимаетесь на ступень. Движение должно быть сильным, но плавным. Сконцентрируйтесь на усилии, которое создает ваша передняя нога. Ошибка — отталкиваться задней ногой. Пусть она будет расслаблена."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ006.mp4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EX012</t>
+          <t>CZ007</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ягодичный мост с разведением коленей / Glute Bridge with Abduction</t>
+          <t>CZ007</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Ягодичный мост с раскрытием. Совет: в верхней точке, удерживая таз, плавно разведите колени. Это тонкая работа. Сконцентрируйтесь на активации боковых мышц ягодиц. Ошибка — позволять тазу опускаться. Сохраняйте высоту и стабильность."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ007.mp4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EX013</t>
+          <t>CZ008</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Приседания с прыжком / Jump Squats</t>
+          <t>CZ008</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"Приседание с прыжком. Здесь мы соединяем силу и легкость. Совет: приземляйтесь бесшумно, как кошка, сразу уходя в следующее приседание. Сконцентрируйтесь на моменте невесомости в прыжке. Ошибка — жесткое приземление. Позаботьтесь о своих суставах."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ008.mp4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EX014</t>
+          <t>CZ009</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Выпады с прыжком / Jumping Lunges</t>
+          <t>CZ009</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Прыжковые выпады. Это танец силы и координации. Совет: найдите свой ритм. Не обязательно делать быстро, главное — плавно. Сконцентрируйтесь на удержании баланса во время смены ног. Ошибка — терять контроль. Лучше сделать медленнее, но сохранить форму."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ009.mp4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EX015</t>
+          <t>CZ010</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Маласана (Глубокий присед) / Malasana (Deep Squat)</t>
+          <t>CZ010</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Поза глубокого приседа. Совет: позвольте тазу опуститься под действием силы тяжести. Дышите глубоко, направляя дыхание в область таза. Сконцентрируйтесь на ощущении раскрытия. Ошибка — напрягаться. Эта поза — о расслаблении и принятии."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ010.mp4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EX016</t>
+          <t>CZ011</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Классические отжимания / Classic Push-ups</t>
+          <t>CZ011</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"Приступим к отжиманиям. Ваш совет — думайте о том, что вы отталкиваете планету от себя, а не себя от нее. Сконцентрируйтесь на дыхании: вдох при опускании, выдох на усилии. Избегайте ошибки суеты — не разводите локти широко в стороны. Движение должно быть сильным, но спокойным."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ011.mp4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EX017</t>
+          <t>CZ012</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Отжимания от возвышенности / Incline Push-ups</t>
+          <t>CZ012</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Отжимания от опоры. Совет: это движение позволяет нам познакомиться с формой отжимания с уважением к текущим возможностям тела. Сконцентрируйтесь на ощущении работы грудных мышц. Ошибка — прогибать спину. Ваше тело — единая линия, полная достоинства."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ012.mp4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EX018</t>
+          <t>CZ013</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Отжимания с колен / Knee Push-ups</t>
+          <t>CZ013</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Отжимания с колен. Совет: это не упрощение, а мудрая модификация. Она позволяет сосредоточиться на качестве, а не на борьбе с весом. Сконцентрируйтесь на медленной и плавной фазе опускания. Ошибка — оставлять таз наверху. Позвольте ему быть частью движения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ013.mp4</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EX019</t>
+          <t>CZ014</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Отжимания с ногами на возвышенности / Decline Push-ups</t>
+          <t>CZ014</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Отжимания с поднятыми ногами. Совет: отнеситесь к этому движению с особым вниманием, оно требует больше контроля. Сконцентрируйтесь на удержании стабильности всего тела. Ошибка — торопиться. Лучше сделать меньше повторений, но с полным осознанием."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ014.mp4</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EX020</t>
+          <t>CZ015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Отжимания с узкой постановкой рук / Narrow Grip Push-ups</t>
+          <t>CZ015</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Отжимания с узким хватом. Здесь мы направляем внимание на трицепсы. Совет: представьте, что ваши локти скользят вдоль ребер. Сконцентрируйтесь на ощущении силы в задней поверхности рук. Ошибка — разводить локти в стороны, теряя фокус упражнения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ015.mp4</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EX021</t>
+          <t>CZ016</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Отжимания с широкой постановкой рук / Wide Grip Push-ups</t>
+          <t>CZ016</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Отжимания с широким хватом. Эта форма раскрывает грудную клетку. Совет: опускайтесь плавно, чувствуя, как растягиваются грудные мышцы. Сконцентрируйтесь на мощном, но плавном сокращении при подъеме. Ошибка — опускаться слишком низко, создавая дискомфорт в плечах. Слушайте свое тело."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ016.mp4</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EX022</t>
+          <t>CZ017</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Отжимание "Плюс" / Push-up Plus</t>
+          <t>CZ017</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Практика 'Отжимание Плюс'. Совет: движение рождается не в руках, а между лопатками. На выдохе мягко оттолкнитесь, расширяя пространство между ними. Сконцентрируйтесь на этом тонком, изолированном движении. Ошибка — сгибать локти. Руки остаются прямыми."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ017.mp4</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EX023</t>
+          <t>CZ018</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Подтягивания прямым хватом / Pull-ups (Pronated Grip)</t>
+          <t>CZ018</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Подтягивания. Это практика преодоления гравитации. Совет: начните движение с опускания плеч и сведения лопаток. Сила идет от спины. Сконцентрируйтесь на ощущении подъема всего тела как единого целого. Ошибка — использовать рывки. Движение должно быть честным."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ018.mp4</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EX024</t>
+          <t>CZ019</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Подтягивания обратным хватом / Chin-ups (Supinated Grip)</t>
+          <t>CZ019</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Подтягивания обратным хватом. Здесь мы призываем на помощь силу рук. Совет: представьте, что вы подтягиваете перекладину к себе, а не себя к ней. Сконцентрируйтесь на совместной работе спины и бицепсов. Ошибка — не опускаться до конца, лишая мышцы полной проработки."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ019.mp4</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EX025</t>
+          <t>CZ020</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Подтягивания нейтральным хватом / Neutral Grip Pull-ups</t>
+          <t>CZ020</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Подтягивания нейтральным хватом. Эта форма наиболее дружелюбна к нашим плечам. Совет: позвольте движению быть естественным и сильным. Сконцентрируйтесь на ощущении мощи в верхней части спины. Ошибка — забывать про дыхание. Выдох на усилии."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ020.mp4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EX026</t>
+          <t>CZ021</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Негативные подтягивания / Negative Pull-ups</t>
+          <t>CZ021</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Практика негативных подтягиваний. Здесь мы учимся уступать силе тяжести с контролем. Совет: опускайтесь как можно медленнее. Сконцентрируйтесь на сопротивлении. В этом сопротивлении и рождается сила. Ошибка — падать вниз. Потеря контроля — это потеря возможности для роста."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>videos/mentor/CZ021.mp4</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EX027</t>
+          <t>EX001</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Австралийские подтягивания / Inverted Rows</t>
+          <t>EX001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Горизонтальная тяга. Совет: представьте, что вы сводите лопатки, а руки лишь следуют за этим движением. Тело остается прямым, как стрела. Сконцентрируйтесь на работе мышц между лопатками. Ошибка — провисание таза. Ваш кор — это ваша опора."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX001.mp4</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EX028</t>
+          <t>EX002</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Отжимания от опоры (на трицепс) / Bench/Chair Dips</t>
+          <t>EX002</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Отжимания от опоры. Совет: держите спину близко к опоре, чтобы движение было безопасным для плеч. Опускайтесь на вдохе, поднимайтесь на выдохе. Сконцентрируйтесь на силе ваших трицепсов. Ошибка — опускаться слишком глубоко. Уважайте пределы своих суставов."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX002.mp4</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EX029</t>
+          <t>EX003</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Жим "Щучкой" / Pike Push-ups</t>
+          <t>EX003</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Жим 'Щучкой'. Мы направляем усилие на плечи. Совет: ваше тело образует угол. Двигайтесь головой по направлению к полу, а не вперед. Сконцентрируйтесь на работе дельтовидных мышц. Ошибка — смещать вес тела вперед, превращая упражнение в отжимание."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX003.mp4</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EX030</t>
+          <t>EX004</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Y-разведения лежа на животе / Y-Raises (Prone)</t>
+          <t>EX004</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Y-разведения. Это тонкая работа для здоровья осанки. Совет: поднимайте руки медленно, большими пальцами вверх. Движение небольшое. Сконцентрируйтесь на ощущении сокращения мышц в середине спины. Ошибка — прогибаться в пояснице. Она должна быть расслаблена."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX004.mp4</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EX031</t>
+          <t>EX005</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Планка на предплечьях / Forearm Plank</t>
+          <t>EX005</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"Практика Планки. Совет: представьте, что ваше тело — это мост. Прочный и стабильный. Сконцентрируйтесь на ощущении энергии, проходящей единой линией от пяток до макушки. Избегайте ошибки провисания в центре. Мост не должен прогибаться."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX005.mp4</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EX032</t>
+          <t>EX006</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Планка на прямых руках / High Plank</t>
+          <t>EX006</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Высокая планка. Совет: отталкивайтесь ладонями от пола, как будто хотите его раздвинуть. Это поможет активировать мышцы спины. Сконцентрируйтесь на спокойном и ровном дыхании, оно — ваша опора. Ошибка — напрягать шею. Шея — продолжение позвоночника."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX006.mp4</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>EX033</t>
+          <t>EX007</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Боковая планка / Side Plank</t>
+          <t>EX007</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"Боковая планка. Это поза равновесия. Совет: вытягивайтесь от опорного локтя до кончиков пальцев свободной руки, раскрывая грудную клетку. Сконцентрируйтесь на ощущении боковой силы, поддерживающей вас. Ошибка — опускать таз. Стремитесь вверх, к небу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX007.mp4</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>EX034</t>
+          <t>EX008</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>«Птица-собака» / Bird-Dog</t>
+          <t>EX008</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"Практика 'Птица-собака'. Совет: двигайтесь медленно, с грацией. Представьте, что вы растягиваете тело в противоположных направлениях. Сконцентрируйтесь на неподвижности вашего центра, пока конечности движутся. Ошибка — терять баланс из-за спешки. В медлительности — контроль."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX008.mp4</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>EX035</t>
+          <t>EX009</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Скручивания на пресс / Crunches</t>
+          <t>EX009</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Скручивания. Совет: пусть движение будет небольшим и осознанным. Поднимайтесь на выдохе, отрывая от пола только лопатки. Сконцентрируйтесь на сокращении верхних мышц живота. Ошибка — тянуть себя за шею. Шея расслаблена, работает только пресс."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX009.mp4</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EX036</t>
+          <t>EX010</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Обратные скручивания / Reverse Crunches</t>
+          <t>EX010</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Обратные скручивания. Здесь мы работаем с нижней частью живота. Совет: на выдохе мягко подтяните колени к груди, слегка приподнимая таз. Сконцентрируйтесь на ощущении 'сворачивания' нижней части тела. Ошибка — использовать инерцию. Сила идет изнутри."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX010.mp4</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>EX037</t>
+          <t>EX011</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>«Велосипед» / Bicycle Crunches</t>
+          <t>EX011</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Практика 'Велосипед'. Совет: это не гонка, а плавный танец. Соединяйте локоть и колено через центр вашего тела. Сконцентрируйтесь на ощущении скручивания в талии. Ошибка — быстрые, небрежные движения. Почувствуйте каждое скручивание."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX011.mp4</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EX038</t>
+          <t>EX012</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Подъемы ног лежа / Lying Leg Raises</t>
+          <t>EX012</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Подъемы ног. Совет: опускайте ноги на медленном выдохе, чувствуя, как пресс сопротивляется гравитации. Поясница — ваш индикатор. Сконцентрируйтесь на том, чтобы она оставалась прижатой к полу. Ошибка — прогиб в пояснице. Если он появляется, согните ноги."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX012.mp4</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>EX039</t>
+          <t>EX013</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>«Супермен» / Superman</t>
+          <t>EX013</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Поза 'Летящего'. Совет: на вдохе плавно поднимите руки и ноги, вытягиваясь из центра. Сконцентрируйтесь на ощущении силы и длины в задней части тела. Ошибка — напрягать шею, запрокидывая голову. Взгляд направлен вниз."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX013.mp4</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>EX040</t>
+          <t>EX014</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>«Мертвый жук» / Dead Bug</t>
+          <t>EX014</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"Практика 'Мертвый жук'. Это упражнение на глубокую мудрость тела. Совет: двигайтесь очень медленно. Опускайте руку и ногу только до той точки, где поясница еще прижата к полу. Сконцентрируйтесь на абсолютной неподвижности вашего центра. Ошибка — спешка и прогиб в спине."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX014.mp4</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EX041</t>
+          <t>EX015</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Повороты корпуса сидя (Русский твист) / Russian Twist</t>
+          <t>EX015</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Скручивания сидя. Совет: поворачивайте корпус целиком — грудь, плечи, взгляд. Движение рождается в талии. Сконцентрируйтесь на дыхании: выдох на скручивании. Ошибка — двигать только руками. Руки — лишь продолжение движения корпуса."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX015.mp4</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EX042</t>
+          <t>EX016</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Планка с подъемом руки/ноги / Plank with Limb Raise</t>
+          <t>EX016</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Планка с асимметричной опорой. Это практика равновесия. Совет: перед тем, как поднять руку или ногу, найдите свой центр. Движение должно быть легким. Сконцентрируйтесь на удержании таза параллельно полу. Ошибка — перекашивать таз. Лучше поднять конечность ниже, но сохранить стабильность."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX016.mp4</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EX043</t>
+          <t>EX017</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Боковая планка со скручиванием / Side Plank with Rotation</t>
+          <t>EX017</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Боковая планка с вращением. Совет: на выдохе 'ныряйте' рукой под корпус, на вдохе — раскрывайтесь. Движение плавное и текучее. Сконцентрируйтесь на вращении в грудном отделе. Ошибка — ронять таз. Он остается вашей высокой точкой опоры."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX017.mp4</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EX044</t>
+          <t>EX018</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>«Уголок» (удержание) / L-Sit Hold</t>
+          <t>EX018</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Удержание 'Уголка'. Это практика силы и воли. Совет: отталкивайтесь руками от опоры, опускайте плечи вниз от ушей. Сконцентрируйтесь на дыхании. Дышите в напряжение, оно поможет вам. Ошибка — задерживать дыхание. Это лишь увеличит напряжение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX018.mp4</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EX045</t>
+          <t>EX019</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Подъемы ног в висе / Hanging Leg Raises</t>
+          <t>EX019</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Подъемы ног в висе. Совет: позвольте движению начаться из глубины вашего живота. Поднимайте таз, а не просто ноги. Сконцентрируйтесь на контролируемом опускании. Ошибка — раскачиваться. Укротите инерцию силой своего центра."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX019.mp4</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CX001</t>
+          <t>EX020</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Бёрпи (классическое) / Burpee</t>
+          <t>EX020</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Практика Бёрпи. Совет: отнеситесь к этому движению как к потоку, где одна форма плавно перетекает в другую. Не боритесь с ним. Сконцентрируйтесь на ритме вашего дыхания, пусть оно ведет вас. Ошибка — напряжение там, где оно не нужно, например, в плечах. Сохраняйте легкость."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX020.mp4</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CX002</t>
+          <t>EX021</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Бёрпи (упрощенное) / Burpee (No Push-up)</t>
+          <t>EX021</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Вариация Бёрпи. Совет: уберите из движения элемент отжимания, чтобы сосредоточиться на непрерывности и потоке. Сконцентрируйтесь на ощущении энергии, проходящей через все тело. Ошибка — жесткое приземление. Будьте добры к своим суставам."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX021.mp4</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CX003</t>
+          <t>EX022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Шагающее Бёрпи / Walking Burpee</t>
+          <t>EX022</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"Шагающее Бёрпи. Это медитация в движении. Совет: каждый шаг — осознанный. Почувствуйте, как стопа ставится на пол, как ладони находят опору. Сконцентрируйтесь на плавности и тишине. Ошибка — спешка. Ценность этого упражнения — в его медлительности и контроле."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX022.mp4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CX004</t>
+          <t>EX023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Прыжки "Jumping Jacks" / Jumping Jacks</t>
+          <t>EX023</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Практика 'Раскрытия'. Совет: на каждом прыжке представляйте, как вы раскрываетесь навстречу миру. Движение легкое и радостное. Сконцентрируйтесь на ритме, который создает ваше тело. Ошибка — задерживать дыхание. Дышите свободно, в такт движению."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX023.mp4</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CX005</t>
+          <t>EX024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Бег с высоким подъемом коленей / High Knees</t>
+          <t>EX024</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Бег на месте. Совет: не боритесь с землей, а отталкивайтесь от нее. Почувствуйте упругость в стопах. Сконцентрируйтесь на ощущении легкости, будто вы едва касаетесь пола. Ошибка — тяжелые, 'вколачивающие' шаги. Бегите тихо."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX024.mp4</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CX006</t>
+          <t>EX025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"Скалолаз" / Mountain Climbers</t>
+          <t>EX025</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"Практика 'Скалолаз'. Совет: сохраняйте ваш центр сильным и неподвижным, пока ноги движутся. Представьте, что ваш кор — это скала, а ноги — альпинист. Сконцентрируйтесь на спокойствии вашего центра. Ошибка — раскачивать таз. Вся сила рождается из стабильности."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX025.mp4</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CX007</t>
+          <t>EX026</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Бег с захлестом голени / Butt Kicks</t>
+          <t>EX026</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"Бег с захлестом. Совет: позвольте пяткам легко взлетать к ягодицам. Это движение должно быть расслабленным. Сконцентрируйтесь на ощущении растяжения в передней части бедра. Ошибка — напрягать плечи. Пусть верх тела будет спокоен."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX026.mp4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CX008</t>
+          <t>EX027</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Прыжки со скакалкой (воображаемой) / Phantom Jump Rope</t>
+          <t>EX027</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"Прыжки со скакалкой. Совет: представьте легкую, невидимую скакалку. Прыжки низкие, едва отрываясь от земли. Сконцентрируйтесь на ритме и координации. Ошибка — прыгать слишком высоко, тратя лишнюю энергию. Ищите эффективность."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX027.mp4</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CX009</t>
+          <t>EX027_v2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Боковые прыжки / Lateral Jumps</t>
+          <t>EX027_v2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"Боковые прыжки. Мы исследуем движение в сторону. Совет: двигайтесь плавно, перетекая из стороны в сторону. Сконцентрируйтесь на балансе в момент приземления. Ошибка — терять контроль. Лучше сделать меньше, но осознаннее."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX027_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CX010</t>
+          <t>EX028</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>"Конькобежец" / Skaters</t>
+          <t>EX028</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"Движение 'Конькобежца'. Совет: это грациозное, скользящее движение. Представьте, что вы скользите по льду. Сконцентрируйтесь на балансе и плавности перехода с одной ноги на другую. Ошибка — резкие, дерганные движения. Ищите поток."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX028.mp4</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CX011</t>
+          <t>EX028_v2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Быстрые шаги / Fast Feet</t>
+          <t>EX028_v2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>"Практика 'Быстрые шаги'. Совет: позвольте ногам двигаться быстро, но сохраняйте спокойствие в верхней части тела и в дыхании. Сконцентрируйтесь на ощущении энергии в стопах. Ошибка — переносить напряжение в плечи и лицо. Будьте расслаблены."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX028_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CX012</t>
+          <t>EX029</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Бой с тенью / Shadow Boxing</t>
+          <t>EX029</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>"Танец с тенью. Совет: это не агрессия, а диалог с пространством. Движения текучие, как у воды. Сконцентрируйтесь на дыхании, которое сопровождает каждое движение. Ошибка — напряжение и злость. Цель — освобождение энергии, а не ее накопление."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX029.mp4</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CX013</t>
+          <t>EX029_v2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Прыжки на короб (на стул) / Box Jumps (on chair)</t>
+          <t>EX029_v2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Прыжок на возвышенность. Это практика доверия. Совет: перед прыжком выдохните, отпуская сомнения. Приземляйтесь мягко, с благодарностью к своему телу. Сконцентрируйтесь на моменте тишины перед прыжком. Ошибка — спешка. Убедитесь, что вы готовы."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX029_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CX014</t>
+          <t>EX030</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Прыжки "Звезда" / Star Jumps</t>
+          <t>EX030</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Прыжок 'Звезда'. Совет: на пике прыжка почувствуйте расширение, раскрытие. На приземлении — мягкое возвращение в центр. Сконцентрируйтесь на цикле 'расширение-сжатие'. Ошибка — жесткое приземление. Уважайте свое тело."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX030.mp4</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CX015</t>
+          <t>EX030_v2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Танцевальное кардио (свободное) / Freestyle Dance Cardio</t>
+          <t>EX030_v2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Свободный танец. Совет: нет правильных и неправильных движений. Позвольте вашему телу двигаться так, как ему хочется под музыку. Сконцентрируйтесь на радости движения. Ошибка — осуждать себя. Это практика свободы и самовыражения."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX030_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SX001</t>
+          <t>EX031</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Сжатие Кегеля (Базовое) / Kegel Squeeze (Basic)</t>
+          <t>EX031</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>"Практика внутреннего сжатия. Совет: найдите вашу корневую мышцу. На выдохе мягко подтяните ее внутрь и вверх. На вдохе — полностью отпустите. Сконцентрируйтесь на этом тонком, почти незаметном движении. Ошибка — напрягать что-либо, кроме этой мышцы. Ищите чистоту усилия."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX031.mp4</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SX002</t>
+          <t>EX031_v2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Пульсации Кегеля (Быстрые) / Kegel Pulses (Fast)</t>
+          <t>EX031_v2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Практика внутреннего пульса. Совет: представьте легкую, быструю пульсацию в центре вашего таза. Движения легкие, без усилия. Сконцентрируйтесь на ритме, который созвучен вашему внутреннему состоянию. Ошибка — терять осознанность, превращая практику в механическое действие."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX031_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SX003</t>
+          <t>EX031_v3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Удержания Кегеля (Длинные) / Kegel Holds (Long)</t>
+          <t>EX031_v3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Практика внутреннего удержания. Совет: сожмите мышцу и удерживайте ее, но не с максимальной силой, а с той, которую можете контролировать. Сконцентрируйтесь на спокойном дыхании во время удержания. Ошибка — задерживать дыхание. Сила рождается в спокойствии."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX031_v3.mp4</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SX004</t>
+          <t>EX032</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Обратные Кегели (Расслабление) / Reverse Kegels (Relaxation)</t>
+          <t>EX032</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>"Практика отпускания. Совет: это не выталкивание, а сознательное расслабление. На выдохе позвольте мышцам тазового дна 'раскрыться' и 'опуститься'. Сконцентрируйтесь на ощущении пространства и свободы в тазу. Ошибка — применять силу. Истинный контроль — в умении отпускать."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX032.mp4</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SX005</t>
+          <t>EX032_v2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Упражнение "Лифт" / The "Elevator" Kegel</t>
+          <t>EX032_v2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>"Практика 'Лифт'. Совет: представьте, что ваше усилие — это лифт, плавно поднимающийся и опускающийся по этажам. Движение бесшовное. Сконцентрируйтесь на тонких градациях напряжения. Ошибка — 'прыгать' через этажи. Исследуйте каждый уровень."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX032_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SX006</t>
+          <t>EX032_v3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Кегели с сопротивлением / Resisted Kegels</t>
+          <t>EX032_v3</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Практика с сопротивлением. Совет: это не о поднятии тяжести, а о диалоге с силой. Используйте минимальное сопротивление. Сконцентрируйтесь на чистом усилии, идущем из самого центра. Ошибка — гордыня, стремление поднять больше. Уважайте возможности своего тела."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX032_v3.mp4</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SX007</t>
+          <t>EX033</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Сжатие МТД с дыханием / Kegel with Breathing</t>
+          <t>EX033</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Дыхание и корень. Совет: пусть выдох инициирует сжатие, а вдох — расслабление. Соедините эти два фундаментальных ритма жизни. Сконцентрируйтесь на этой синергии. Ошибка — нарушать естественный ритм. Не заставляйте, а наблюдайте и следуйте."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX033.mp4</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SX008</t>
+          <t>EX033_v2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Сокращение МТД в мостике / Glute Bridge with Kegel</t>
+          <t>EX033_v2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Интеграция силы. Совет: в верхней точке моста, когда внешняя сила ягодиц максимальна, пробудите вашу внутреннюю силу — мышцы таза. Сконцентрируйтесь на ощущении, как внешнее и внутреннее становятся единым. Ошибка — терять опору или дыхание."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX033_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SX009</t>
+          <t>EX034</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Наклоны таза лежа / Supine Pelvic Tilts</t>
+          <t>EX034</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>"Дыхание тазом. Совет: на выдохе мягко прижмите поясницу к полу, на вдохе — отпустите. Движение едва заметное. Сконцентрируйтесь на том, как это движение массирует ваш крестец и освобождает поясницу. Ошибка — напрягать шею. Все внимание — в тазу."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX034.mp4</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SX010</t>
+          <t>EX034_v2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>"Олени у ручья" (Даосская практика) / Deer at the Stream</t>
+          <t>EX034_v2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>"Даосская практика 'Олень'. Совет: это работа с жизненной энергией 'ци'. Выполняется с глубоким уважением. Сконцентрируйтесь на ощущении тепла и силы, которые вы собираете внизу живота. Ошибка — относиться к этому как к простому упражнению. Это энергетическая работа."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX034_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SX011</t>
+          <t>EX035</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Изолированное сокращение анального сфинктера / Anal Sphincter Contractions</t>
+          <t>EX035</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Осознание заднего центра. Совет: направьте свое внимание на мышцы анального сфинктера. Попробуйте сократить только их, оставив переднюю часть расслабленной. Сконцентрируйтесь на этом разделении. Ошибка — напрягать все сразу. Учитесь различать."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX035.mp4</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SX012</t>
+          <t>EX035_v2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Изолированное сокращение уретрального сфинктера / Urethral Sphincter Contractions</t>
+          <t>EX035_v2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Осознание переднего центра. Совет: теперь направьте внимание на переднюю часть, на мышцы, контролирующие мочеиспускание. Сократите только их. Сконцентрируйтесь на тонком различии ощущений. Ошибка — вовлекать задний центр. Это практика тонкой настройки."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX035_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SX013</t>
+          <t>EX036</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Динамические наклоны таза ("Кошка-Корова") / Cat-Cow with Pelvic Focus</t>
+          <t>EX036</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Волна в позвоночнике. Совет: позвольте движению начаться в тазу и волной пройти до макушки. Не думайте о форме. Сконцентрируйтесь на ощущении текучести и свободы в позвоночнике. Ошибка — резкость. Движение должно быть плавным, как вода."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX036.mp4</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SX014</t>
+          <t>EX036_v2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Самомассаж промежности / Perineum Self-Massage</t>
+          <t>EX036_v2</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Практика самомассажа. Совет: делайте это с заботой и вниманием, как будто вы исследуете священное место. Используйте мягкое давление. Сконцентрируйтесь на дыхании и отпускании напряжения в этой области. Ошибка — спешка или грубость. Это акт заботы о себе."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX036_v2.mp4</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SX015</t>
+          <t>EX037</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Глубокое диафрагмальное дыхание / Diaphragmatic Breathing</t>
+          <t>EX037</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Дыхание жизни. Совет: позвольте вашему животу подниматься на вдохе и опускаться на выдохе. Дыхание глубокое, медленное и спокойное. Сконцентрируйтесь на том, как с каждым выдохом уходит напряжение. Ошибка — контролировать дыхание. Просто наблюдайте за ним."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX037.mp4</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CZ001</t>
+          <t>EX038</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Растяжка "Бабочка" / Butterfly Stretch</t>
+          <t>EX038</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Поза Бабочки. Совет: позвольте коленям опуститься под собственным весом, не давите на них. Спина остается прямой. Сконцентрируйтесь на дыхании, направляя его в область таза, чтобы помочь раскрытию. Ошибка — сутулиться. Раскрытие идет изнутри, а не от усилия."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX038.mp4</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CZ002</t>
+          <t>EX039</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Поза Голубя / Pigeon Pose</t>
+          <t>EX039</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Поза Голубя. Совет: найдите положение, в котором вы чувствуете глубокое, но комфортное растяжение. На выдохе позволяйте телу 'таять', опускаться ниже. Сконцентрируйтесь на отпускании напряжения в ягодицах и бедрах. Ошибка — игнорировать боль в колене. Уважайте сигналы вашего тела."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX039.mp4</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CZ003</t>
+          <t>EX040</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Поза Ребенка / Child's Pose</t>
+          <t>EX040</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Поза Ребенка. Это поза сдачи и отдыха. Совет: полностью расслабьтесь, позвольте лбу тяжело лежать на полу. Сконцентрируйтесь на том, как расширяется ваша спина на вдохе. Ошибка — напрягать плечи. Отпустите весь контроль."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX040.mp4</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CZ004</t>
+          <t>EX041</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Растяжка задней поверхности бедра / Hamstring Stretch (Single Leg)</t>
+          <t>EX041</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"Растяжка задней поверхности ноги. Совет: наклоняйтесь вперед с прямой спиной, движение идет от таза. Сконцентрируйтесь на ощущении удлинения по всей задней линии ноги. Ошибка — тянуться к носку любой ценой, скругляя спину. Цель — растяжение, а не касание."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX041.mp4</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CZ005</t>
+          <t>EX042</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Растяжка квадрицепса / Quad Stretch (Side-lying)</t>
+          <t>EX042</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"Растяжка передней поверхности бедра. Совет: мягко притяните пятку к ягодице. Подайте таз немного вперед, чтобы углубить ощущение. Сконцентрируйтесь на дыхании в растягиваемую мышцу. Ошибка — выгибать спину. Сохраняйте нейтральное положение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX042.mp4</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CZ006</t>
+          <t>EX043</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Растяжка грудных мышц / Chest Stretch (Doorway)</t>
+          <t>EX043</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"Раскрытие грудной клетки. Совет: сделайте шаг вперед и позвольте груди раскрыться. Плечи опущены. Сконцентрируйтесь на ощущении пространства и свободы в области сердца. Ошибка — напряжение. Растяжка должна быть освобождающей."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX043.mp4</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CZ007</t>
+          <t>EX044</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Скручивание позвоночника лежа / Supine Spinal Twist</t>
+          <t>EX044</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"Мягкое скручивание. Совет: на выдохе позвольте колену опуститься в сторону под действием гравитации. Обе лопатки остаются на полу. Сконцентрируйтесь на том, как позвоночник освобождается от напряжения. Ошибка — применять силу. Это пассивное движение."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX044.mp4</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CZ008</t>
+          <t>EX045</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Растяжка трицепса за головой / Overhead Triceps Stretch</t>
+          <t>EX045</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"Растяжка трицепса. Совет: мягко направляйте локоть за голову. Дышите спокойно. Сконцентрируйтесь на ощущении удлинения в задней части руки. Ошибка — прогибаться в пояснице. Ваш кор остается стабильным."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX045.mp4</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CZ009</t>
+          <t>EX046</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Растяжка шеи / Neck Stretch (Lateral Flexion)</t>
+          <t>EX046</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"Освобождение шеи. Совет: позвольте весу вашей руки мягко углубить наклон головы. Не тяните. Сконцентрируйтесь на пространстве, которое создается между ухом и плечом. Ошибка — резкость. Будьте предельно нежны с этой областью."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX046.mp4</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CZ010</t>
+          <t>EX047</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Собака мордой вниз / Downward-Facing Dog</t>
+          <t>EX047</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"Поза 'Собака мордой вниз'. Совет: отталкивайтесь руками, направляя таз к небу. Спина прямая. Можно поочередно сгибать колени, 'прогуливаясь' на месте. Сконцентрируйтесь на удлинении всего тела. Ошибка — скруглять спину. Приоритет — вытяжение позвоночника."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX047.mp4</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CZ011</t>
+          <t>EX048</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Наклон вперед стоя / Standing Forward Bend</t>
+          <t>EX048</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"Наклон вперед. Совет: на выдохе позвольте вашему корпусу 'стечь' вниз. Расслабьте шею, плечи, руки. Сконцентрируйтесь на отпускании. Гравитация — ваш помощник. Ошибка — пытаться держать спину прямой силой. Позвольте ей расслабиться."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX048.mp4</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CZ012</t>
+          <t>EX049</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Поза Счастливого Ребенка / Happy Baby Pose</t>
+          <t>EX049</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Поза 'Счастливого Ребенка'. Совет: мягко подтяните колени к подмышкам. Поясница плотно прижата к полу. Можно слегка покачиваться. Сконцентрируйтесь на ощущении свободы в тазобедренных суставах. Ошибка — напряжение. Вспомните беззаботность ребенка."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX049.mp4</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CZ013</t>
+          <t>EX050</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Поза Лягушки / Frog Pose</t>
+          <t>EX050</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Глубокое раскрытие в позе Лягушки. Совет: найдите свой предел и останьтесь в нем, глубоко дыша. С каждым выдохом отпускайте напряжение. Сконцентрируйтесь на принятии интенсивных ощущений. Ошибка — бороться с растяжкой. Вместо этого — сдайтесь ей."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX050.mp4</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CZ014</t>
+          <t>EX051</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Растяжка икр у стены / Calf Stretch (Wall)</t>
+          <t>EX051</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Растяжка икроножных мышц. Совет: удерживайте заднюю ногу прямой, пятка стремится к полу. Сконцентрируйтесь на ощущении натяжения в голени. Ошибка — отрывать пятку от пола. Движение очень тонкое."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>videos/mentor/EX051.mp4</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CZ015</t>
+          <t>SX001</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Глубокое диафрагмальное дыхание / Diaphragmatic Breathing</t>
+          <t>SX001</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Финальное дыхание. Совет: просто наблюдайте за своим дыханием, не вмешиваясь. Почувствуйте, как живот поднимается и опускается. Сконцентрируйтесь на покое, который приходит с каждым выдохом. Ошибка — пытаться что-то делать. Просто будьте."</t>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX001.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SX002</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SX002</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX002.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SX003</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SX003</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX003.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SX004</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SX004</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX004.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SX005</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SX005</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX005.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>SX006</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SX006</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX006.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SX007</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SX007</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX007.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SX008</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SX008</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX008.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>SX009</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SX009</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX009.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SX010</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SX010</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX010.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>SX011</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SX011</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX011.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>SX012</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SX012</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX012.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>SX013</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SX013</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX013.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>SX014</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SX014</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX014.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>SX015</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SX015</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX015.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>SX016</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SX016</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX016.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>SX017</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SX017</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX017.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SX018</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SX018</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX018.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SX019</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SX019</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX019.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SX020</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SX020</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX020.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SX021</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SX021</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>videos/mentor/SX021.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>WZ001</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>WZ001</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ001.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>WZ002</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>WZ002</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ002.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>WZ003</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>WZ003</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ003.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>WZ004</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>WZ004</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ004.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>WZ005</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>WZ005</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ005.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>WZ006</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>WZ006</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ006.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>WZ007</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>WZ007</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ007.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>WZ008</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>WZ008</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ008.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>WZ009</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>WZ009</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ009.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>WZ010</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>WZ010</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ010.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>WZ011</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>WZ011</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ011.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>WZ012</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>WZ012</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ012.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>WZ013</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>WZ013</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ013.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>WZ014</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>WZ014</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ014.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WZ015</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>WZ015</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ015.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>WZ016</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>WZ016</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ016.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>WZ017</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>WZ017</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ017.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WZ018</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>WZ018</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ018.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>WZ019</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>WZ019</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ019.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>WZ020</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>WZ020</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ020.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>WZ021</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>WZ021</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>videos/mentor/WZ021.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>after-fuckin-he</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>after-fuckin-he</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>videos/mentor/after-fuckin-he.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>aleksandr--kirill-</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>aleksandr--kirill-</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>videos/mentor/aleksandr--kirill-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>alex--igor---close-</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>alex--igor---close-</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>videos/mentor/alex--igor---close-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>alex--kirill---glad</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>alex--kirill---glad</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>videos/mentor/alex--kirill---glad.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>alex-cross---onlyfa</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>alex-cross---onlyfa</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>videos/mentor/alex-cross---onlyfa.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>alexey-vinnichenko-</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>alexey-vinnichenko-</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>videos/mentor/alexey-vinnichenko-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>archer-push-ups</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>archer-push-ups</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>videos/mentor/archer-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>archervolcano-b</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>archervolcano-b</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>videos/mentor/archervolcano-b.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>artur-zinatulli</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>artur-zinatulli</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>videos/mentor/artur-zinatulli.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>atlas-stone-lifts</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>atlas-stone-lifts</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>videos/mentor/atlas-stone-lifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>barbell-curls</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>barbell-curls</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>videos/mentor/barbell-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>battle-ropes</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>battle-ropes</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>videos/mentor/battle-ropes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>bear-crawls</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>bear-crawls</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>videos/mentor/bear-crawls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>bench-press</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>bench-press</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>videos/mentor/bench-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>bent-over-rows</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>bent-over-rows</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>videos/mentor/bent-over-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>bicep-curls</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>bicep-curls</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>videos/mentor/bicep-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>bicycle-crunches</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>bicycle-crunches</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>videos/mentor/bicycle-crunches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>bird-dogs</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>bird-dogs</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>videos/mentor/bird-dogs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>bogdan-koshman-</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>bogdan-koshman-</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>videos/mentor/bogdan-koshman-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>bottomdecidedtoca</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>bottomdecidedtoca</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>videos/mentor/bottomdecidedtoca.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>box-jumps</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>box-jumps</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>videos/mentor/box-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>broad-jumps</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>broad-jumps</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>videos/mentor/broad-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>bubble-butt</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>bubble-butt</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>videos/mentor/bubble-butt.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>bulgarian-split-squats</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>bulgarian-split-squats</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>videos/mentor/bulgarian-split-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>burpees</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>burpees</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>videos/mentor/burpees.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>butt-kicks</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>butt-kicks</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>videos/mentor/butt-kicks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>cable-curls</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>cable-curls</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>videos/mentor/cable-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>cable-flyes</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>cable-flyes</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>videos/mentor/cable-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>calf-raises</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>calf-raises</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>videos/mentor/calf-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>chest-flyes</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>chest-flyes</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>videos/mentor/chest-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>chest-press</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>chest-press</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>videos/mentor/chest-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>chin-ups</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>chin-ups</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>videos/mentor/chin-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>clapping-push-ups</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>clapping-push-ups</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>videos/mentor/clapping-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>close-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>close-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>videos/mentor/close-grip-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>concentration-curls</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>concentration-curls</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>videos/mentor/concentration-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>cossack-squats</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>cossack-squats</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>videos/mentor/cossack-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>crab-walks</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>crab-walks</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>videos/mentor/crab-walks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>crunches</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>crunches</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>videos/mentor/crunches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>curtsy-lunges</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>curtsy-lunges</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>videos/mentor/curtsy-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>dead-bugs</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>dead-bugs</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>videos/mentor/dead-bugs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>deadlift</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>deadlift</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>videos/mentor/deadlift.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>decline-flyes</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>decline-flyes</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>videos/mentor/decline-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>decline-press</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>decline-press</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>videos/mentor/decline-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>decline-push-ups</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>decline-push-ups</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>videos/mentor/decline-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>dellzzy-bevagxw</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>dellzzy-bevagxw</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>videos/mentor/dellzzy-bevagxw.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>depth-jumps</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>depth-jumps</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>videos/mentor/depth-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>diamond-push-ups</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>diamond-push-ups</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>videos/mentor/diamond-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>dips</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>dips</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>videos/mentor/dips.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>dlckcharleh-dickch</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>dlckcharleh-dickch</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>videos/mentor/dlckcharleh-dickch.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>double-leg-bounds</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>double-leg-bounds</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>videos/mentor/double-leg-bounds.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>drxt-aresfly-lo</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>drxt-aresfly-lo</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>videos/mentor/drxt-aresfly-lo.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>dumbbell-press</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>dumbbell-press</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>videos/mentor/dumbbell-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>explosive-push-ups</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>explosive-push-ups</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>videos/mentor/explosive-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>face-pulls</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>face-pulls</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>videos/mentor/face-pulls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>farmer-walks</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>farmer-walks</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>videos/mentor/farmer-walks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>favorite-kap-bi</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>favorite-kap-bi</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>videos/mentor/favorite-kap-bi.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>favoritekapbnnuf</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>favoritekapbnnuf</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>videos/mentor/favoritekapbnnuf.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>fierce-new-es-c</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>fierce-new-es-c</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>videos/mentor/fierce-new-es-c.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>fierce-new-es-colle</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>fierce-new-es-colle</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>videos/mentor/fierce-new-es-colle.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>flutter-kicks</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>flutter-kicks</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>videos/mentor/flutter-kicks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>french-press</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>french-press</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>videos/mentor/french-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>front-loaded-carries</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>front-loaded-carries</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>videos/mentor/front-loaded-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>front-raises</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>front-raises</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>videos/mentor/front-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>front-squats</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>front-squats</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>videos/mentor/front-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>fuckedayoungguyi</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>fuckedayoungguyi</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>videos/mentor/fuckedayoungguyi.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>glute-bridges</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>glute-bridges</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>videos/mentor/glute-bridges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>goblet-squats</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>goblet-squats</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>videos/mentor/goblet-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>good-mornings</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>good-mornings</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>videos/mentor/good-mornings.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>hack-squats</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>hack-squats</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>videos/mentor/hack-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>hammer-curls</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>hammer-curls</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>videos/mentor/hammer-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>handstand-push-ups</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>handstand-push-ups</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>videos/mentor/handstand-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>hanging-leg-raises</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>hanging-leg-raises</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>videos/mentor/hanging-leg-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>hard-to-resist-</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>hard-to-resist-</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>videos/mentor/hard-to-resist-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>high-knees</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>high-knees</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>videos/mentor/high-knees.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>hip-thrusts</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>hip-thrusts</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>videos/mentor/hip-thrusts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>hollow-body-holds</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>hollow-body-holds</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>videos/mentor/hollow-body-holds.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>how-do-we-feel-good-</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>how-do-we-feel-good-</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>videos/mentor/how-do-we-feel-good-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>hyperextensions</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>hyperextensions</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>videos/mentor/hyperextensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>incline-flyes</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>incline-flyes</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>videos/mentor/incline-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>incline-press</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>incline-press</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>videos/mentor/incline-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>incline-push-ups</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>incline-push-ups</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>videos/mentor/incline-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>inverted-rows</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>inverted-rows</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>videos/mentor/inverted-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-ful</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-ful</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>videos/mentor/ivan-gudkov-ful.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-vil</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ivan-gudkov-vil</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>videos/mentor/ivan-gudkov-vil.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>jump-lunges</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>jump-lunges</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>videos/mentor/jump-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>jump-squats</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>jump-squats</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>videos/mentor/jump-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>jumping-jacks</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>jumping-jacks</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>videos/mentor/jumping-jacks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>just-chilling-a</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>just-chilling-a</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>videos/mentor/just-chilling-a.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>kettlebell-cleans</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>kettlebell-cleans</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>videos/mentor/kettlebell-cleans.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>kettlebell-presses</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>kettlebell-presses</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>videos/mentor/kettlebell-presses.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>kettlebell-rows</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>kettlebell-rows</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>videos/mentor/kettlebell-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>kettlebell-snatches</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>kettlebell-snatches</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>videos/mentor/kettlebell-snatches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>kettlebell-swings</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>kettlebell-swings</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>videos/mentor/kettlebell-swings.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>khav</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>khav</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>videos/mentor/khav.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>kickbacks</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>kickbacks</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>videos/mentor/kickbacks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>kirill--stas---clos</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>kirill--stas---clos</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>videos/mentor/kirill--stas---clos.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>knee-to-elbow</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>knee-to-elbow</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>videos/mentor/knee-to-elbow.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>konstantinkamyn</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>konstantinkamyn</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>videos/mentor/konstantinkamyn.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>landmine-rows</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>landmine-rows</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>videos/mentor/landmine-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>lateral-bounds</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>lateral-bounds</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>videos/mentor/lateral-bounds.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>lateral-lunges</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>lateral-lunges</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>videos/mentor/lateral-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>lateral-raises</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>lateral-raises</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>videos/mentor/lateral-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>leg-curls</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>leg-curls</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>videos/mentor/leg-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>leg-extensions</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>leg-extensions</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>videos/mentor/leg-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>leg-press</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>leg-press</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>videos/mentor/leg-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>leg-raises</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>leg-raises</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>videos/mentor/leg-raises.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>lunges</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>lunges</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>videos/mentor/lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>lying-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>lying-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>videos/mentor/lying-tricep-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>maximilianbarminb</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>maximilianbarminb</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>videos/mentor/maximilianbarminb.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>medicine-ball-slams</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>medicine-ball-slams</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>videos/mentor/medicine-ball-slams.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>medicine-ball-throws</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>medicine-ball-throws</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>videos/mentor/medicine-ball-throws.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>mountain-climbers</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>mountain-climbers</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>videos/mentor/mountain-climbers.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>overhead-carries</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>overhead-carries</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>videos/mentor/overhead-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>overhead-press</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>overhead-press</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>videos/mentor/overhead-press.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>overhead-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>overhead-tricep-extensions</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>videos/mentor/overhead-tricep-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>pec-deck</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>pec-deck</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>videos/mentor/pec-deck.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>pike-push-ups</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>pike-push-ups</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>videos/mentor/pike-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>plank-jacks</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>plank-jacks</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>videos/mentor/plank-jacks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>plank-shoulder-taps</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>plank-shoulder-taps</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>videos/mentor/plank-shoulder-taps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>plank-up-downs</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>plank-up-downs</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>videos/mentor/plank-up-downs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>planks</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>planks</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>videos/mentor/planks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>plyometric-push-ups</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>plyometric-push-ups</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>videos/mentor/plyometric-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>preacher-curls</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>preacher-curls</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>videos/mentor/preacher-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>prowler-pushes</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>prowler-pushes</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>videos/mentor/prowler-pushes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>pull-ups</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>pull-ups</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>videos/mentor/pull-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>push-ups</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>push-ups</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>videos/mentor/push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>qhgh</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>qhgh</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>videos/mentor/qhgh.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>rack-pulls</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>rack-pulls</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>videos/mentor/rack-pulls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>rear-delt-flyes</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>rear-delt-flyes</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>videos/mentor/rear-delt-flyes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>reverse-crunches</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>reverse-crunches</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>videos/mentor/reverse-crunches.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>reverse-grip-pushdowns</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>reverse-grip-pushdowns</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>videos/mentor/reverse-grip-pushdowns.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>reverse-hyperextensions</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>reverse-hyperextensions</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>videos/mentor/reverse-hyperextensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>reverse-lunges</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>reverse-lunges</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>videos/mentor/reverse-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>romanian-deadlifts</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>romanian-deadlifts</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>videos/mentor/romanian-deadlifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>rope-pushdowns</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>rope-pushdowns</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>videos/mentor/rope-pushdowns.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>rows</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>videos/mentor/rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>rustam-posing-workou</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>rustam-posing-workou</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>videos/mentor/rustam-posing-workou.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>sandbag-carries</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>sandbag-carries</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>videos/mentor/sandbag-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>scissor-kicks</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>scissor-kicks</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>videos/mentor/scissor-kicks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>seated-rows</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>seated-rows</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>videos/mentor/seated-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>shrugs</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>shrugs</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>videos/mentor/shrugs.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>side-planks</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>side-planks</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>videos/mentor/side-planks.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>single-arm-push-ups</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>single-arm-push-ups</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>videos/mentor/single-arm-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>single-arm-rows</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>single-arm-rows</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>videos/mentor/single-arm-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>single-leg-deadlifts</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>single-leg-deadlifts</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>videos/mentor/single-leg-deadlifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>single-leg-hops</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>single-leg-hops</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>videos/mentor/single-leg-hops.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>single-leg-squats</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>single-leg-squats</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>videos/mentor/single-leg-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>sissy-squats</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>sissy-squats</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>videos/mentor/sissy-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>sit-ups</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>sit-ups</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>videos/mentor/sit-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>skater-hops</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>skater-hops</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>videos/mentor/skater-hops.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>sled-pulls</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>sled-pulls</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>videos/mentor/sled-pulls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>sled-pushes</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>sled-pushes</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>videos/mentor/sled-pushes.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>some-time-ago-i-met-</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>some-time-ago-i-met-</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>videos/mentor/some-time-ago-i-met-.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>spider-curls</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>spider-curls</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>videos/mentor/spider-curls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>squats</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>squats</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>videos/mentor/squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>star-jumps</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>star-jumps</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>videos/mentor/star-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>step-ups</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>step-ups</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>videos/mentor/step-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>suitcase-carries</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>suitcase-carries</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>videos/mentor/suitcase-carries.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>sumo-deadlifts</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>sumo-deadlifts</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>videos/mentor/sumo-deadlifts.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>sumo-squats</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>sumo-squats</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>videos/mentor/sumo-squats.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>superman</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>superman</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>videos/mentor/superman.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>t-bar-rows</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>t-bar-rows</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>videos/mentor/t-bar-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>the-new-male-supermo</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>the-new-male-supermo</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>videos/mentor/the-new-male-supermo.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>thrusters</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>thrusters</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>videos/mentor/thrusters.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>tire-flips</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>tire-flips</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>videos/mentor/tire-flips.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>tricep-dips</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>tricep-dips</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>videos/mentor/tricep-dips.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>tricep-extensions</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>tricep-extensions</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>videos/mentor/tricep-extensions.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>tricep-pushdowns</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>tricep-pushdowns</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>videos/mentor/tricep-pushdowns.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>tuck-jumps</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>tuck-jumps</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>videos/mentor/tuck-jumps.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>turkish-get-ups</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>turkish-get-ups</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>videos/mentor/turkish-get-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>upright-rows</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>upright-rows</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>videos/mentor/upright-rows.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>v-ups</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>v-ups</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>videos/mentor/v-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>vasiliy--first-casti</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>vasiliy--first-casti</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>videos/mentor/vasiliy--first-casti.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>vladimir-buketo</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>vladimir-buketo</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>videos/mentor/vladimir-buketo.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>vova---posing-workou</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>vova---posing-workou</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>videos/mentor/vova---posing-workou.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>walking-lunges</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>walking-lunges</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>videos/mentor/walking-lunges.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>wall-balls</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>wall-balls</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>videos/mentor/wall-balls.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>wall-sits</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>wall-sits</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>videos/mentor/wall-sits.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>wide-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>wide-grip-push-ups</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>videos/mentor/wide-grip-push-ups.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>wood-choppers</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>wood-choppers</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>videos/mentor/wood-choppers.mp4</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>zavolskij</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>zavolskij</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>instruction</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>videos/mentor/zavolskij.mp4</t>
         </is>
       </c>
     </row>
